--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5414012738853503</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9289617486338798</v>
+        <v>0.8469945355191257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5285285285285285</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6841046277665995</v>
+        <v>0.6553911205073994</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4474474474474475</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08227980703546948</v>
+        <v>0.0723135202983599</v>
       </c>
       <c r="J2" t="n">
-        <v>1051.875885102612</v>
+        <v>967.2811896000322</v>
       </c>
       <c r="K2" t="n">
-        <v>1577167.238990715</v>
+        <v>1497376.419035784</v>
       </c>
       <c r="L2" t="n">
-        <v>1255.853191655265</v>
+        <v>1223.673330197151</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7067606518613283</v>
+        <v>0.7215959892007007</v>
       </c>
     </row>
   </sheetData>
